--- a/Team-Data/2012-13/4-1-2012-13.xlsx
+++ b/Team-Data/2012-13/4-1-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
         <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -693,25 +760,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="P2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.712</v>
+        <v>0.711</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
@@ -720,7 +787,7 @@
         <v>24.6</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
@@ -729,31 +796,31 @@
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
         <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -762,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -792,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -801,16 +868,16 @@
         <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
         <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J3" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
         <v>6.1</v>
@@ -878,28 +945,28 @@
         <v>17.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
         <v>8.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
@@ -917,25 +984,25 @@
         <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -956,16 +1023,16 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -977,13 +1044,13 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>22</v>
@@ -992,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1138,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1165,22 +1232,22 @@
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -1212,34 +1279,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
         <v>0.337</v>
@@ -1254,19 +1321,19 @@
         <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
         <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
@@ -1275,22 +1342,22 @@
         <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.9</v>
+        <v>-9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1493,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1505,13 +1572,13 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1523,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1535,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S7" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1645,22 +1712,22 @@
         <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1675,10 +1742,10 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>14</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1720,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2030,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2087,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
         <v>81</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,7 +2219,7 @@
         <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O10" t="n">
         <v>15.7</v>
@@ -2167,16 +2234,16 @@
         <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>6.8</v>
@@ -2194,10 +2261,10 @@
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2212,25 +2279,25 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK10" t="n">
         <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2248,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2257,16 +2324,16 @@
         <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2439,25 +2506,25 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.554</v>
+        <v>0.548</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.461</v>
@@ -2516,40 +2583,40 @@
         <v>28.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
         <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>20.1</v>
@@ -2561,10 +2628,10 @@
         <v>105.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2576,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2615,13 +2682,13 @@
         <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>28</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n">
         <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.64</v>
+        <v>0.635</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
         <v>17.5</v>
@@ -2710,16 +2777,16 @@
         <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T13" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
@@ -2728,19 +2795,19 @@
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>5.2</v>
@@ -2755,19 +2822,19 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2800,22 +2867,22 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.653</v>
+        <v>0.662</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
         <v>80.40000000000001</v>
@@ -2877,28 +2944,28 @@
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
         <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U14" t="n">
         <v>23.4</v>
@@ -2919,19 +2986,19 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2955,13 +3022,13 @@
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,10 +3040,10 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
         <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3161,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.676</v>
+        <v>0.671</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,16 +3299,16 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
         <v>0.348</v>
@@ -3253,10 +3320,10 @@
         <v>21.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S16" t="n">
         <v>29.4</v>
@@ -3265,25 +3332,25 @@
         <v>42.5</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
         <v>14.3</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
         <v>93.8</v>
@@ -3292,16 +3359,16 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
@@ -3310,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,7 +3392,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3334,13 +3401,13 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3361,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="n">
         <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
         <v>15.6</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R18" t="n">
         <v>13.1</v>
@@ -3629,7 +3696,7 @@
         <v>43.9</v>
       </c>
       <c r="U18" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V18" t="n">
         <v>14</v>
@@ -3638,7 +3705,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
@@ -3650,55 +3717,55 @@
         <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
         <v>13</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
         <v>6</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
         <v>46</v>
       </c>
       <c r="G19" t="n">
-        <v>0.37</v>
+        <v>0.361</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,10 +3845,10 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3793,28 +3860,28 @@
         <v>0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
         <v>25.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.735</v>
+        <v>0.732</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U19" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V19" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>8.199999999999999</v>
@@ -3823,31 +3890,31 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA19" t="n">
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>8</v>
@@ -3886,10 +3953,10 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
         <v>20</v>
@@ -3901,10 +3968,10 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
@@ -4068,13 +4135,13 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4083,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4244,13 +4311,13 @@
         <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>0.253</v>
+        <v>0.257</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,7 +4573,7 @@
         <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.45</v>
@@ -4518,22 +4585,22 @@
         <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
         <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
         <v>42.3</v>
@@ -4542,13 +4609,13 @@
         <v>22.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
         <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5.1</v>
@@ -4560,10 +4627,10 @@
         <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4614,13 +4681,13 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,7 +4699,7 @@
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4811,10 +4878,10 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>3</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.446</v>
+        <v>0.452</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,46 +5119,46 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O26" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P26" t="n">
         <v>20.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V26" t="n">
         <v>14.6</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
@@ -5109,10 +5176,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,16 +5191,16 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5154,25 +5221,25 @@
         <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5345,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
         <v>55</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.743</v>
+        <v>0.753</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,7 +5483,7 @@
         <v>39.4</v>
       </c>
       <c r="J28" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.486</v>
@@ -5431,13 +5498,13 @@
         <v>0.382</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
@@ -5449,7 +5516,7 @@
         <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5458,25 +5525,25 @@
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
         <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>7.1</v>
       </c>
       <c r="M29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="Q29" t="n">
         <v>0.787</v>
@@ -5625,13 +5692,13 @@
         <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V29" t="n">
         <v>13.7</v>
@@ -5646,7 +5713,7 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>20</v>
@@ -5655,19 +5722,19 @@
         <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,7 +5743,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
@@ -5691,7 +5758,7 @@
         <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5718,10 +5785,10 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J30" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L30" t="n">
         <v>6.1</v>
@@ -5792,10 +5859,10 @@
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P30" t="n">
         <v>23.6</v>
@@ -5807,16 +5874,16 @@
         <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
         <v>22.6</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>8.4</v>
@@ -5825,19 +5892,19 @@
         <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,13 +5913,13 @@
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
@@ -5897,13 +5964,13 @@
         <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6043,7 +6110,7 @@
         <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6052,19 +6119,19 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-1-2012-13</t>
+          <t>2013-04-01</t>
         </is>
       </c>
     </row>
